--- a/banhang24/Template/ExportExcel/Report/BaoCaoBanHang/Teamplate_BaoCaoBanHangTheoLoiNhuan.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoBanHang/Teamplate_BaoCaoBanHangTheoLoiNhuan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Tổng cộng:</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Chi phí</t>
+  </si>
+  <si>
+    <t>Giảm trừ Bảo hiểm</t>
   </si>
 </sst>
 </file>
@@ -566,11 +569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,15 +587,17 @@
     <col min="7" max="7" width="17" style="17" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="17" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="17" customWidth="1"/>
-    <col min="10" max="11" width="19.28515625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="18" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="17" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="17" customWidth="1"/>
-    <col min="15" max="15" width="20" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="24.140625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="18" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="17" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="17" customWidth="1"/>
+    <col min="16" max="16" width="20" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -610,9 +615,10 @@
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -628,14 +634,15 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -664,25 +671,28 @@
         <v>11</v>
       </c>
       <c r="J4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="L4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="N4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="O4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -697,9 +707,10 @@
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="19"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -714,9 +725,10 @@
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O6" s="19"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -731,9 +743,10 @@
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O7" s="19"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -748,9 +761,10 @@
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O8" s="19"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -765,9 +779,10 @@
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O9" s="19"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -782,9 +797,10 @@
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="19"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -799,9 +815,10 @@
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="19"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -816,9 +833,10 @@
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="19"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -833,9 +851,10 @@
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="19"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -850,9 +869,10 @@
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O14" s="19"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -867,9 +887,10 @@
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="19"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -884,9 +905,10 @@
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="19"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -901,9 +923,10 @@
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="19"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -918,9 +941,10 @@
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="19"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -935,9 +959,10 @@
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="19"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -952,9 +977,10 @@
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="19"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -969,9 +995,10 @@
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
-      <c r="O21" s="10"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="19"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -986,9 +1013,10 @@
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
-      <c r="O22" s="10"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="19"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1003,9 +1031,10 @@
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="19"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1020,9 +1049,10 @@
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
-      <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="19"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1037,9 +1067,10 @@
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
-      <c r="O25" s="10"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="19"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1054,9 +1085,10 @@
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
-      <c r="O26" s="10"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="19"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1071,9 +1103,10 @@
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
-      <c r="O27" s="10"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="19"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1088,9 +1121,10 @@
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
-      <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="19"/>
+      <c r="P28" s="10"/>
+    </row>
+    <row r="29" spans="1:16" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>0</v>
       </c>
@@ -1137,15 +1171,19 @@
         <f>SUM(N$5:N28)</f>
         <v>0</v>
       </c>
-      <c r="O29" s="11">
-        <f>IF(J29=0,0,(N29/J29)*100)</f>
+      <c r="O29" s="20">
+        <f>SUM(O$5:O28)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <f>IF(K29=0,0,(O29/K29)*100)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
     <mergeCell ref="A29:D29"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
